--- a/results/I3_N5_M2_T15_C100_DepCentral_s2_P1_res.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s2_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1577.026473145669</v>
+        <v>1288.695580578097</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.84647314566407</v>
+        <v>22.71436508284903</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.619878869364404</v>
+        <v>9.093720422966108</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.619878869364404</v>
+        <v>9.074935918213756</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1082.720000000004</v>
+        <v>798</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.46</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -639,7 +639,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -962,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.335169194456213</v>
+        <v>5.134510687494963</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>5.799341493038749</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>4.82817771006826</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.283234758917612</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.516731437002262</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +1024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1059,7 +1059,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1073,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1087,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1101,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1115,7 +1115,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1126,10 +1126,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1140,10 +1140,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1182,15 +1182,85 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
         <v>6</v>
       </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1293,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>82.15500000000058</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -1304,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>71.81500000000059</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -1315,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>70.85500000000059</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -1326,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>70.01500000000058</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -1337,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>76.06000000000058</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -1348,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>186.6</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -1359,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>173.4900000000012</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
@@ -1370,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>174.5700000000012</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
@@ -1381,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>174.55</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1392,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>177.9100000000012</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
@@ -1403,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>129.6099999999997</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1414,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>133.0649999999997</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1425,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>124.1349999999997</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1436,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>132.8049999999997</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1447,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>134.6249999999997</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1458,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>93.39000000000037</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
@@ -1469,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>93.47500000000036</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -1480,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>91.28000000000037</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -1491,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>91.81500000000037</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
@@ -1502,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>93.57500000000036</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -1513,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>41.18000000000073</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28">
@@ -1524,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>37.41500000000073</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29">
@@ -1535,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>34.38500000000073</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30">
@@ -1546,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>34.59500000000072</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31">
@@ -1557,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>36.59000000000073</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32">
@@ -1568,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>129.6099999999997</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33">
@@ -1579,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>133.0649999999997</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34">
@@ -1590,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>124.1349999999997</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35">
@@ -1601,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>132.8049999999997</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36">
@@ -1612,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>134.6249999999997</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37">
@@ -1623,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>186.6</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38">
@@ -1634,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>173.4900000000012</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -1645,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>174.5700000000012</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40">
@@ -1656,7 +1726,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>174.55</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41">
@@ -1667,7 +1737,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>177.9100000000012</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>29.60999999999973</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -1725,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>33.06499999999971</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -1736,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>24.13499999999972</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1747,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>32.80499999999972</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -1758,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>34.62499999999972</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -1769,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>86.59999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1780,7 +1850,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>73.49000000000117</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -1791,7 +1861,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>74.57000000000119</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -1802,7 +1872,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>74.55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -1813,7 +1883,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>77.91000000000116</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1871,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1882,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1893,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1904,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1915,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1926,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1937,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1948,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1959,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1970,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1981,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.125</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1992,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>5.005</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -2003,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -2014,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>4.27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -2025,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>12.78</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2036,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>19.015</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2047,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>11.29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2058,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>18.235</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2069,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>14.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2080,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>11.055</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2091,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>6.935</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2102,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>10.14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2113,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>11.19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2124,7 +2194,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>14.21</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2138,7 +2208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2220,7 +2290,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2231,7 +2301,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2242,7 +2312,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2253,7 +2323,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2264,12 +2334,67 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
